--- a/public/specialties.xlsx
+++ b/public/specialties.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\hyamy9974\capacite-app-new\public\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\hyamy010101\capacite-app-03\public\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="2955" windowHeight="0"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9072"/>
   </bookViews>
   <sheets>
     <sheet name="Feuil1" sheetId="1" r:id="rId1"/>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
   <si>
     <t>Spécialité</t>
   </si>
@@ -51,6 +51,12 @@
   </si>
   <si>
     <t>Besoin TP Spécifique par Groupe</t>
+  </si>
+  <si>
+    <t>Besoin TP2 par Groupe</t>
+  </si>
+  <si>
+    <t>Besoin TP3 par Groupe</t>
   </si>
 </sst>
 </file>
@@ -381,21 +387,23 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D11"/>
+  <dimension ref="A1:F11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G9" sqref="G9"/>
+      <selection activeCell="H12" sqref="H12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="30.7109375" customWidth="1"/>
-    <col min="2" max="2" width="24.85546875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="23.42578125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="27.5703125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="30.6640625" customWidth="1"/>
+    <col min="2" max="2" width="24.88671875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="23.44140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="27.5546875" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="19.5546875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="24.88671875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -408,8 +416,14 @@
       <c r="D1" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E1" t="s">
+        <v>9</v>
+      </c>
+      <c r="F1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>3</v>
       </c>
@@ -422,8 +436,14 @@
       <c r="D2">
         <v>350</v>
       </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E2">
+        <v>100</v>
+      </c>
+      <c r="F2">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>4</v>
       </c>
@@ -436,8 +456,14 @@
       <c r="D3">
         <v>220</v>
       </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E3">
+        <v>200</v>
+      </c>
+      <c r="F3">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>5</v>
       </c>
@@ -450,8 +476,14 @@
       <c r="D4">
         <v>150</v>
       </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E4">
+        <v>250</v>
+      </c>
+      <c r="F4">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>6</v>
       </c>
@@ -464,8 +496,14 @@
       <c r="D5">
         <v>510</v>
       </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E5">
+        <v>300</v>
+      </c>
+      <c r="F5">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>7</v>
       </c>
@@ -478,8 +516,14 @@
       <c r="D6">
         <v>185</v>
       </c>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E6">
+        <v>350</v>
+      </c>
+      <c r="F6">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C11" s="1"/>
       <c r="D11" s="2"/>
     </row>
